--- a/Unity/Assets/Config/Excel/EnemySpawnPosConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EnemySpawnPosConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1078,24 +1078,24 @@
   <dimension ref="C3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F8"/>
+      <selection activeCell="E6" sqref="E6:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6272727272727" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.1272727272727" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.3636363636364" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.1818181818182" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.5454545454545" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7583333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.3666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.1833333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.5416666666667" style="3" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.75454545454545" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.75833333333333" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:9">
+    <row r="3" spans="3:9">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1114,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" ht="13.5" spans="3:9">
+    <row r="4" spans="3:9">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" ht="13.5" spans="3:9">
+    <row r="5" spans="3:9">
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1">
-        <v>1001</v>
+        <v>10001</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="1">
-        <v>1002</v>
+        <v>10002</v>
       </c>
       <c r="F7" s="6">
         <v>1</v>
@@ -1194,7 +1194,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="1">
-        <v>1003</v>
+        <v>10003</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/EnemySpawnPosConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EnemySpawnPosConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1078,24 +1078,24 @@
   <dimension ref="C3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E8"/>
+      <selection activeCell="G6" sqref="G6:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7583333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.3666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.1833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.5416666666667" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6272727272727" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.1272727272727" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.3636363636364" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.1818181818182" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.5454545454545" style="3" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.75833333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.75454545454545" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9">
+    <row r="3" ht="13.5" spans="3:9">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1114,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="3:9">
+    <row r="4" ht="13.5" spans="3:9">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="3:9">
+    <row r="5" ht="13.5" spans="3:9">
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="3:7">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="3:7">
@@ -1200,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="6:6">

--- a/Unity/Assets/Config/Excel/EnemySpawnPosConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EnemySpawnPosConfig.xlsx
@@ -1078,7 +1078,7 @@
   <dimension ref="C3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G8"/>
+      <selection activeCell="F6" sqref="F6:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1163,7 +1163,7 @@
         <v>10001</v>
       </c>
       <c r="F6" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
         <v>5000</v>
@@ -1180,7 +1180,7 @@
         <v>10002</v>
       </c>
       <c r="F7" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1">
         <v>5000</v>
@@ -1197,7 +1197,7 @@
         <v>10003</v>
       </c>
       <c r="F8" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
         <v>5000</v>

--- a/Unity/Assets/Config/Excel/EnemySpawnPosConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EnemySpawnPosConfig.xlsx
@@ -1163,7 +1163,7 @@
         <v>10001</v>
       </c>
       <c r="F6" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>5000</v>
@@ -1180,7 +1180,7 @@
         <v>10002</v>
       </c>
       <c r="F7" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
         <v>5000</v>
@@ -1197,7 +1197,7 @@
         <v>10003</v>
       </c>
       <c r="F8" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
         <v>5000</v>

--- a/Unity/Assets/Config/Excel/EnemySpawnPosConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EnemySpawnPosConfig.xlsx
@@ -1163,7 +1163,7 @@
         <v>10001</v>
       </c>
       <c r="F6" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
         <v>5000</v>
@@ -1180,7 +1180,7 @@
         <v>10002</v>
       </c>
       <c r="F7" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1">
         <v>5000</v>
@@ -1197,7 +1197,7 @@
         <v>10003</v>
       </c>
       <c r="F8" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
         <v>5000</v>
